--- a/p_email_automation/email_list.xlsx
+++ b/p_email_automation/email_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamjungho/Documents/git/python/fastcampus-python-automation/p_email_automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\python\fastcampus-python-automation\p_email_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DFB9DA-44EE-E849-96D0-CBEB178D2B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A585A7-C310-46E9-9190-3620004E9F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="840" windowWidth="20550" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>recipient</t>
   </si>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>패스트컴퍼니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김경록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>oceanfog1@gmail.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,18 +513,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -559,12 +567,34 @@
         <v>11</v>
       </c>
       <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{383D8AC5-3FAD-3147-B5F8-441EDCF629D8}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{D2D53C42-A3B4-EB45-8089-C2CF3071BEA3}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{AB52B5DC-F3B0-4BF5-9533-7217AECD30BF}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{D0524BE1-0B70-471B-AB15-115149942BFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/p_email_automation/email_list.xlsx
+++ b/p_email_automation/email_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\python\fastcampus-python-automation\p_email_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A585A7-C310-46E9-9190-3620004E9F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2754ABEE-BC62-4FBD-A413-4FA4F8BD72D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="840" windowWidth="20550" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,12 +516,18 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">

--- a/p_email_automation/email_list.xlsx
+++ b/p_email_automation/email_list.xlsx
@@ -1,116 +1,240 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\python\fastcampus-python-automation\p_email_automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2754ABEE-BC62-4FBD-A413-4FA4F8BD72D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>recipient</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t>recipent2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paulham98@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pauljungho.ham@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test email 입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>client_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>email_template_1.html</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>함정호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스트컴퍼니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oceanfog1@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="68">
+  <si>
+    <t>horde_xxxx@gmail.com</t>
+  </si>
+  <si>
+    <t>mosquito_xxxx@gmail.com</t>
+  </si>
+  <si>
+    <t>[패스트몰] BENTZ FAST MALL 09/14 상품발주 확인요청의 件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    안녕하세요.
+    패스트몰 000입니다.
+    금일자로 주문건 접수되어 출고요청 전달드립니다.
+    확인부탁드리겠습니다.
+    항상 많은 도움주셔서 감사드립니다.
+    000 드림
+    </t>
+  </si>
+  <si>
+    <t>[패스트몰] 그레이스개러지.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 그레이스커스텀.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 그레이스코퍼레이션.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 다온마켓.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 다온파트너스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 다인컴퍼니.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 다인파트너스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 더블유데이.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 로벤컨설팅.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 로벤플레이어.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 맥스이노.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 맥스커스텀.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 맥스홀딩스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 메이플메디.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 메이플플레이어.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 메트로홀딩스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 밀레니엄마켓.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 밀레니엄파트너스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 벨라컨설팅.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 벨리개러지.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 벨리홀딩스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 벨마켓.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 벨텍.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 비씨디컴퍼니.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 세명파트너스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 스페이스메디.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 심온이노.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 아너스컨설팅.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 아이리스메디.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 아이리스텍.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 에이스이노.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 에이스홀딩스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 예담메디.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 예담파트너스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 오케이컨설팅.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 유안캐미컬.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 을지이노.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 을지파트너스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 이클래스개러지.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 이클래스테크.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 이클래스파트너스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 이클래스홀딩스.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 지앤미이노.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 지앤미플레이어.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 큐원데이.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 큐원마트.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 큐원이노.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 클리오메디.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 클리오텍.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 탑캐미컬.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 탑코리아.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 파인마트.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 파인커스텀.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 퍼스트텍.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 프라임데이.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 프라임마켓.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 프라임캐미컬.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 홀리메디.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 홀리생활건강.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 화이트메디컬.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 화이트텍.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 휴먼개러지.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 휴먼데이.xlsx</t>
+  </si>
+  <si>
+    <t>[패스트몰] 휴먼메디컬.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -131,69 +255,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -235,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,27 +345,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,24 +379,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,97 +554,1102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{383D8AC5-3FAD-3147-B5F8-441EDCF629D8}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D2D53C42-A3B4-EB45-8089-C2CF3071BEA3}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{AB52B5DC-F3B0-4BF5-9533-7217AECD30BF}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{D0524BE1-0B70-471B-AB15-115149942BFA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>